--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>610250.6416183346</v>
+        <v>623842.1984424918</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16799231.59170661</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2228144.448830835</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6539533.61841943</v>
+        <v>7093278.740263126</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.85043455023683</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>239.6463054295615</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>159.087059841571</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>205.7870027405611</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>92.04686136036885</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>381.9766671690533</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>157.5342399386653</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170507</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>73.19878202475969</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>151.7786288172334</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.61404849749913</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>119.7254844869146</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>80.67637202141937</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>100.7890476991254</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>22.28534392847676</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3661,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>35.75633396116267</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>239.1537722650267</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.77676262085224</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>54.18430635300789</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>160.6415642146638</v>
+        <v>105.6645478342101</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5168019860619</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>490.6544785583075</v>
+        <v>1157.110366142501</v>
       </c>
       <c r="C2" t="n">
-        <v>490.6544785583075</v>
+        <v>1157.110366142501</v>
       </c>
       <c r="D2" t="n">
-        <v>54.74469373275195</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>54.74469373275195</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W2" t="n">
-        <v>1406.82087835635</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="X2" t="n">
-        <v>987.678414935661</v>
+        <v>1991.696060327755</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.3922912353144</v>
+        <v>1583.409936627409</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>499.7799316366797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>956.0571498693516</v>
+        <v>874.0414241659225</v>
       </c>
       <c r="C4" t="n">
-        <v>956.0571498693516</v>
+        <v>701.4797126491475</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>2621.965827949106</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>2376.086381527562</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>2097.653380780667</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.894979635539</v>
+        <v>1810.697872651097</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.868575221831</v>
+        <v>1538.671468237389</v>
       </c>
       <c r="X4" t="n">
-        <v>1183.476820555243</v>
+        <v>1293.279713570802</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.0571498693516</v>
+        <v>1065.86004288491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>894.7017872989247</v>
+        <v>1814.061104940071</v>
       </c>
       <c r="C5" t="n">
-        <v>456.5593144823481</v>
+        <v>1375.918632123494</v>
       </c>
       <c r="D5" t="n">
-        <v>456.5593144823481</v>
+        <v>940.0088472979385</v>
       </c>
       <c r="E5" t="n">
-        <v>456.5593144823481</v>
+        <v>506.2341024562337</v>
       </c>
       <c r="F5" t="n">
-        <v>456.5593144823481</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L5" t="n">
-        <v>1344.116250983141</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M5" t="n">
-        <v>1344.116250983141</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.515585694473</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.293283011491</v>
+        <v>3638.271871946088</v>
       </c>
       <c r="V5" t="n">
-        <v>1811.676332945317</v>
+        <v>3275.654921879915</v>
       </c>
       <c r="W5" t="n">
-        <v>1406.82087835635</v>
+        <v>3067.789262546014</v>
       </c>
       <c r="X5" t="n">
-        <v>987.678414935661</v>
+        <v>2648.646799125325</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.7017872989247</v>
+        <v>2240.360675424979</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141556</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978198</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.879408124751</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451705</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.990065334051</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.254413150263</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>2260.318086310721</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>2584.876411276933</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>3780.321396534732</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077455</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408056</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408025</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470024</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203218</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442098</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221319</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1045.142905119309</v>
+        <v>1157.008044104463</v>
       </c>
       <c r="C7" t="n">
-        <v>872.5811936025335</v>
+        <v>984.4463325876878</v>
       </c>
       <c r="D7" t="n">
-        <v>706.7032008040562</v>
+        <v>818.5683397892105</v>
       </c>
       <c r="E7" t="n">
-        <v>536.9451970547935</v>
+        <v>648.8103360399477</v>
       </c>
       <c r="F7" t="n">
-        <v>360.2381430165498</v>
+        <v>472.1032820017039</v>
       </c>
       <c r="G7" t="n">
-        <v>194.6468680423774</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S7" t="n">
-        <v>2671.404303635552</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T7" t="n">
-        <v>2547.187862480948</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U7" t="n">
-        <v>2268.754861734053</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="V7" t="n">
-        <v>1981.799353604483</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="W7" t="n">
-        <v>1709.772949190775</v>
+        <v>1430.655943687032</v>
       </c>
       <c r="X7" t="n">
-        <v>1464.381194524188</v>
+        <v>1185.264189020444</v>
       </c>
       <c r="Y7" t="n">
-        <v>1236.961523838296</v>
+        <v>1185.264189020444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754.111273740401</v>
+        <v>1353.81676188431</v>
       </c>
       <c r="C8" t="n">
-        <v>1754.111273740401</v>
+        <v>915.6742890677331</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.201488914845</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="E8" t="n">
-        <v>884.4267440731403</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="F8" t="n">
-        <v>456.5593144823481</v>
+        <v>479.7645042421776</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V8" t="n">
-        <v>2578.109191750057</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W8" t="n">
-        <v>2173.25373716109</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X8" t="n">
-        <v>1754.111273740401</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y8" t="n">
-        <v>1754.111273740401</v>
+        <v>1739.651779226788</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I9" t="n">
-        <v>58.04882857612763</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>382.60715354234</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>382.60715354234</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L9" t="n">
-        <v>382.60715354234</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M9" t="n">
-        <v>382.60715354234</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N9" t="n">
-        <v>382.60715354234</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O9" t="n">
-        <v>382.60715354234</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>764.2385311503645</v>
+        <v>787.4437209101934</v>
       </c>
       <c r="C10" t="n">
-        <v>591.6768196335894</v>
+        <v>614.8820093934183</v>
       </c>
       <c r="D10" t="n">
-        <v>425.7988268351121</v>
+        <v>449.004016594941</v>
       </c>
       <c r="E10" t="n">
-        <v>256.0408230858494</v>
+        <v>279.2460128456783</v>
       </c>
       <c r="F10" t="n">
-        <v>79.33376904760556</v>
+        <v>102.5389588074345</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T10" t="n">
-        <v>2266.283488512004</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.850487765109</v>
+        <v>2011.055677524938</v>
       </c>
       <c r="V10" t="n">
-        <v>1700.894979635539</v>
+        <v>1724.100169395368</v>
       </c>
       <c r="W10" t="n">
-        <v>1428.868575221831</v>
+        <v>1452.07376498166</v>
       </c>
       <c r="X10" t="n">
-        <v>1183.476820555243</v>
+        <v>1206.682010315072</v>
       </c>
       <c r="Y10" t="n">
-        <v>956.0571498693516</v>
+        <v>979.2623396291806</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1330.19478275162</v>
+        <v>1313.35220874188</v>
       </c>
       <c r="C11" t="n">
-        <v>892.0523099350436</v>
+        <v>875.2097359253034</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1425251094881</v>
+        <v>801.27157226393</v>
       </c>
       <c r="E11" t="n">
-        <v>456.1425251094881</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O11" t="n">
-        <v>1844.930551071281</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W11" t="n">
-        <v>2583.922940357564</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X11" t="n">
-        <v>2164.780476936875</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y11" t="n">
-        <v>1756.494353236528</v>
+        <v>1739.651779226788</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O12" t="n">
-        <v>732.2102786755574</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.675863618363</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.3849013700459</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C13" t="n">
-        <v>702.8231898532708</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D13" t="n">
-        <v>536.9451970547935</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E13" t="n">
-        <v>536.9451970547935</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F13" t="n">
-        <v>360.2381430165498</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G13" t="n">
-        <v>194.6468680423774</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2623.30930515323</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T13" t="n">
-        <v>2377.429858731685</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U13" t="n">
-        <v>2098.99685798479</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V13" t="n">
-        <v>1812.041349855221</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W13" t="n">
-        <v>1540.014945441512</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X13" t="n">
-        <v>1294.623190774925</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y13" t="n">
-        <v>1067.203520089033</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1483.506529031654</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="C14" t="n">
-        <v>1045.364056215078</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="D14" t="n">
-        <v>609.4542713895221</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E14" t="n">
-        <v>175.6795265478173</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222252</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544143</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K14" t="n">
-        <v>732.2102786755574</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M14" t="n">
-        <v>1409.675863618363</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N14" t="n">
-        <v>2087.141448561168</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.141448561168</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P14" t="n">
-        <v>2087.141448561168</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q14" t="n">
-        <v>2633.640234519763</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W14" t="n">
-        <v>2737.234686637598</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X14" t="n">
-        <v>2318.092223216909</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1909.806099516562</v>
+        <v>2066.446618057014</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J15" t="n">
-        <v>80.80836689320955</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>245.8805072316101</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L15" t="n">
-        <v>923.3460921744155</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M15" t="n">
-        <v>923.3460921744155</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N15" t="n">
-        <v>923.3460921744155</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O15" t="n">
-        <v>923.3460921744155</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P15" t="n">
-        <v>1600.811677117221</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
         <v>1654.847790009657</v>
@@ -6215,25 +6217,25 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6257,16 +6259,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
         <v>2955.199618136697</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D31" t="n">
-        <v>639.1929661716164</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E31" t="n">
-        <v>469.4349624223536</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F31" t="n">
-        <v>292.7279083841098</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G31" t="n">
-        <v>292.7279083841098</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6776,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
         <v>1107.588885023173</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,31 +6943,31 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912874</v>
@@ -6980,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2079.569280364165</v>
+        <v>1617.071309685005</v>
       </c>
       <c r="C41" t="n">
-        <v>1641.426807547588</v>
+        <v>1375.501842750634</v>
       </c>
       <c r="D41" t="n">
-        <v>1205.517022722033</v>
+        <v>939.5920579250785</v>
       </c>
       <c r="E41" t="n">
-        <v>771.7422778803279</v>
+        <v>505.8173130833737</v>
       </c>
       <c r="F41" t="n">
-        <v>343.8748482895357</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K41" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L41" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="N41" t="n">
-        <v>1167.464966128475</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O41" t="n">
-        <v>1844.930551071281</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3638.271871946088</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>3275.654921879915</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.293283011491</v>
+        <v>2870.799467290948</v>
       </c>
       <c r="X41" t="n">
-        <v>2174.293283011491</v>
+        <v>2451.657003870259</v>
       </c>
       <c r="Y41" t="n">
-        <v>2079.569280364165</v>
+        <v>2043.370880169912</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>402.5082084587938</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.241728529171</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.241728529171</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.241728529171</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.241728529171</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.241728529171</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D43" t="n">
-        <v>591.6768196335894</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E43" t="n">
-        <v>536.9451970547935</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F43" t="n">
-        <v>360.2381430165498</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G43" t="n">
-        <v>194.6468680423774</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1078.651074442687</v>
+        <v>1313.35220874188</v>
       </c>
       <c r="C44" t="n">
-        <v>1078.651074442687</v>
+        <v>875.2097359253034</v>
       </c>
       <c r="D44" t="n">
-        <v>916.3868681652491</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="E44" t="n">
-        <v>482.6121233235442</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M44" t="n">
-        <v>732.2102786755574</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N44" t="n">
-        <v>1409.675863618363</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O44" t="n">
-        <v>2087.141448561168</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W44" t="n">
-        <v>2332.379232048631</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.236768627942</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1504.950644927595</v>
+        <v>1739.651779226788</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141556</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978198</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.879408124751</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451705</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.990065334051</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.254413150263</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>2260.318086310721</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>2584.876411276933</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902656</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>3780.321396534732</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077455</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408056</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408025</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470024</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203218</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442098</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221319</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>961.2411428278582</v>
+        <v>2131.330601803204</v>
       </c>
       <c r="C46" t="n">
-        <v>961.2411428278582</v>
+        <v>1958.768890286428</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>1792.890897487951</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>1623.132893738688</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>1446.425839700444</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>1280.834564726272</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>1280.834564726272</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>1280.834564726272</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>1367.414249890962</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>1642.172704462097</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>2060.382586230058</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>2519.866453410971</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>2962.125256568616</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>3381.794505794397</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>3729.301399764739</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S46" t="n">
-        <v>2671.404303635552</v>
+        <v>3879.255005586387</v>
       </c>
       <c r="T46" t="n">
-        <v>2425.524857214007</v>
+        <v>3633.375559164842</v>
       </c>
       <c r="U46" t="n">
-        <v>2147.091856467112</v>
+        <v>3354.942558417948</v>
       </c>
       <c r="V46" t="n">
-        <v>1860.136348337543</v>
+        <v>3067.987050288378</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.109943923834</v>
+        <v>2795.96064587467</v>
       </c>
       <c r="X46" t="n">
-        <v>1342.718189257247</v>
+        <v>2550.568891208082</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.298518571355</v>
+        <v>2323.149220522191</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>449.5305433373007</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>311.4228197911089</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>104.640860725086</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>166.7395356953541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,16 +9646,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>103.979036059106</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10112,19 +10114,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.0365653694991579</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.1861402298218</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>191.9043815477384</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22595,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.132153028921522</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>195.0198973025159</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.1564011029743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>40.05990761100543</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>201.4565406268464</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>358.3519049525402</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>249.0282712258436</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>110.0349065174842</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>303.8632708079697</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>323.5268904419237</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>37.71410486740378</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4628789093298</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>194.6072758233842</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>310.4264998424908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.8761173587622</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>270.9091227626361</v>
+        <v>325.8861391430897</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.38363054573531</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>446741.2029025028</v>
+        <v>439991.9295861506</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446741.2029025028</v>
+        <v>563317.924536641</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>446741.2029025028</v>
+        <v>563317.924536641</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446741.2029025028</v>
+        <v>563317.924536641</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446741.2029025028</v>
+        <v>563317.924536641</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>685449.7265311105</v>
+        <v>685449.7265311104</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>685449.7265311104</v>
+        <v>685449.7265311105</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685449.7265311104</v>
+        <v>685449.7265311105</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685449.7265311104</v>
+        <v>685449.7265311105</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>446741.2029025028</v>
+        <v>563317.9245366411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>446741.2029025028</v>
+        <v>563317.9245366411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171689.4629799992</v>
+        <v>169095.6142289526</v>
       </c>
       <c r="C2" t="n">
-        <v>171689.4629799992</v>
+        <v>216491.6764389224</v>
       </c>
       <c r="D2" t="n">
-        <v>171689.4629799992</v>
+        <v>216491.6764389224</v>
       </c>
       <c r="E2" t="n">
-        <v>171689.4629799993</v>
+        <v>216491.6764389224</v>
       </c>
       <c r="F2" t="n">
-        <v>171689.4629799992</v>
+        <v>216491.6764389225</v>
       </c>
       <c r="G2" t="n">
         <v>263428.7920686761</v>
@@ -26350,10 +26352,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>171689.4629799993</v>
+        <v>216491.6764389225</v>
       </c>
       <c r="P2" t="n">
-        <v>171689.4629799992</v>
+        <v>216491.6764389224</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973278</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18043.07181607991</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="C4" t="n">
-        <v>18043.07181607992</v>
+        <v>22751.39544251506</v>
       </c>
       <c r="D4" t="n">
-        <v>18043.07181607992</v>
+        <v>22751.39544251507</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607992</v>
+        <v>22751.39544251507</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607992</v>
+        <v>22751.39544251507</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607992</v>
+        <v>22751.39544251507</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>22751.39544251506</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436189</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150914.7510454851</v>
+        <v>-146587.0897510322</v>
       </c>
       <c r="C6" t="n">
-        <v>78412.82392702781</v>
+        <v>1733.83608667308</v>
       </c>
       <c r="D6" t="n">
-        <v>78412.82392702781</v>
+        <v>100870.7695420455</v>
       </c>
       <c r="E6" t="n">
-        <v>112040.4239270279</v>
+        <v>134498.3695420455</v>
       </c>
       <c r="F6" t="n">
-        <v>112040.4239270278</v>
+        <v>134498.3695420455</v>
       </c>
       <c r="G6" t="n">
-        <v>-4766.813085760557</v>
+        <v>74735.6173557752</v>
       </c>
       <c r="H6" t="n">
         <v>158026.4747126809</v>
@@ -26543,10 +26545,10 @@
         <v>158026.4747126809</v>
       </c>
       <c r="J6" t="n">
-        <v>-21018.78337497103</v>
+        <v>-16624.87400502524</v>
       </c>
       <c r="K6" t="n">
-        <v>158026.4747126809</v>
+        <v>79050.95822294813</v>
       </c>
       <c r="L6" t="n">
         <v>158026.4747126809</v>
@@ -26558,10 +26560,10 @@
         <v>158026.4747126809</v>
       </c>
       <c r="O6" t="n">
-        <v>112040.4239270279</v>
+        <v>134498.3695420455</v>
       </c>
       <c r="P6" t="n">
-        <v>112040.4239270278</v>
+        <v>134498.3695420455</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572679</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>449.5305433373007</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>311.4228197911089</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>104.640860725086</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>166.7395356953541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>103.979036059106</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,19 +36834,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820577</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37549,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.0365653694991579</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P44" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623842.1984424918</v>
+        <v>622155.7099684641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799231.59170661</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228144.448830835</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7093278.740263126</v>
+        <v>7081005.705279226</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>239.6463054295615</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>124.6260112701551</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.61404849749822</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>125.2252181652757</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.7870027405611</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381.9766671690533</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>269.9378452362391</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170454</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>388.9839004537531</v>
       </c>
       <c r="D11" t="n">
-        <v>73.19878202475969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967858</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>345.5871317262184</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.67637202141937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>137.5563529521253</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>239.1537722650267</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3979,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>411.0514496973602</v>
       </c>
       <c r="D44" t="n">
-        <v>105.6645478342101</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1157.110366142501</v>
+        <v>1908.412205413</v>
       </c>
       <c r="C2" t="n">
-        <v>1157.110366142501</v>
+        <v>1470.269732596423</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0433909611256</v>
+        <v>1034.359947770868</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>600.5852029291627</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>600.5852029291627</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>199.1873715524266</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719776</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.838523748444</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.696060327755</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.409936627409</v>
+        <v>2334.711775897908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>874.0414241659225</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C4" t="n">
-        <v>701.4797126491475</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D4" t="n">
-        <v>535.6017198506702</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2621.965827949106</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T4" t="n">
-        <v>2376.086381527562</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U4" t="n">
-        <v>2097.653380780667</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V4" t="n">
-        <v>1810.697872651097</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W4" t="n">
-        <v>1538.671468237389</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.279713570802</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y4" t="n">
-        <v>1065.86004288491</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1814.061104940071</v>
+        <v>1786.474744857284</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.918632123494</v>
+        <v>1659.98462549842</v>
       </c>
       <c r="D5" t="n">
-        <v>940.0088472979385</v>
+        <v>1224.074840672864</v>
       </c>
       <c r="E5" t="n">
-        <v>506.2341024562337</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F5" t="n">
-        <v>78.36667286544143</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G5" t="n">
-        <v>78.36667286544143</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H5" t="n">
-        <v>78.36667286544143</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>513.2045709454993</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1347.554862903677</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M5" t="n">
-        <v>1347.554862903677</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.901640863328</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O5" t="n">
-        <v>2353.531449084023</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>3181.84132391742</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3728.340109876015</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>3897.494174629071</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U5" t="n">
-        <v>3638.271871946088</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V5" t="n">
-        <v>3275.654921879915</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W5" t="n">
-        <v>3067.789262546014</v>
+        <v>3040.202902463227</v>
       </c>
       <c r="X5" t="n">
-        <v>2648.646799125325</v>
+        <v>2621.060439042538</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.360675424979</v>
+        <v>2212.774315342192</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2740.426158141556</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>2633.969696978198</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>2538.879408124751</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>2444.758993451705</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>2361.375155067867</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>2275.990065334051</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>2234.254413150263</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>2260.318086310721</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>2584.876411276933</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>3239.582457902656</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>3239.582457902656</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>3239.582457902656</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>3239.582457902656</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>3239.582457902656</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>3780.321396534732</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>3897.494174629071</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>3834.038737077455</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>3703.860093408056</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>3527.523546408025</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>3328.406028470024</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>3143.083274203218</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>2988.215838442098</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>2861.730059221319</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1157.008044104463</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C7" t="n">
-        <v>984.4463325876878</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D7" t="n">
-        <v>818.5683397892105</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E7" t="n">
-        <v>648.8103360399477</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F7" t="n">
-        <v>472.1032820017039</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G7" t="n">
-        <v>306.5120070275316</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H7" t="n">
-        <v>166.6098327179061</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="I7" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>439.2880232284069</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2673.191672100753</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2513.950303398749</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T7" t="n">
-        <v>2268.070856977205</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U7" t="n">
-        <v>1989.63785623031</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V7" t="n">
-        <v>1702.68234810074</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W7" t="n">
-        <v>1430.655943687032</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.264189020444</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y7" t="n">
-        <v>1185.264189020444</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.81676188431</v>
+        <v>1908.412205413</v>
       </c>
       <c r="C8" t="n">
-        <v>915.6742890677331</v>
+        <v>1470.269732596423</v>
       </c>
       <c r="D8" t="n">
-        <v>479.7645042421776</v>
+        <v>1470.269732596423</v>
       </c>
       <c r="E8" t="n">
-        <v>479.7645042421776</v>
+        <v>1036.494987754718</v>
       </c>
       <c r="F8" t="n">
-        <v>479.7645042421776</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G8" t="n">
-        <v>78.36667286544143</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
-        <v>78.36667286544143</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>513.2045709454993</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M8" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.901640863328</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O8" t="n">
-        <v>2353.531449084023</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P8" t="n">
-        <v>3181.84132391742</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q8" t="n">
-        <v>3728.340109876015</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3813.842300812908</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3593.775073685947</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U8" t="n">
-        <v>3334.552771002964</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V8" t="n">
-        <v>2971.93582093679</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W8" t="n">
-        <v>2567.080366347824</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.937902927134</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.651779226788</v>
+        <v>2334.711775897908</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>119.685535676369</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1083.277928244975</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1624.016866877051</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>787.4437209101934</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C10" t="n">
-        <v>614.8820093934183</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D10" t="n">
-        <v>449.004016594941</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E10" t="n">
-        <v>279.2460128456783</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F10" t="n">
-        <v>102.5389588074345</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G10" t="n">
-        <v>77.94988349258144</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H10" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>439.2880232284069</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2535.368124693377</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2289.488678271833</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U10" t="n">
-        <v>2011.055677524938</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V10" t="n">
-        <v>1724.100169395368</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W10" t="n">
-        <v>1452.07376498166</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X10" t="n">
-        <v>1206.682010315072</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.2623396291806</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1313.35220874188</v>
+        <v>1590.935062593035</v>
       </c>
       <c r="C11" t="n">
-        <v>875.2097359253034</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="D11" t="n">
-        <v>801.27157226393</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="E11" t="n">
-        <v>367.4968274222252</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F11" t="n">
-        <v>367.4968274222252</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G11" t="n">
-        <v>367.4968274222252</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H11" t="n">
-        <v>78.36667286544143</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>513.2045709454993</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>1347.554862903677</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.901640863328</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084023</v>
+        <v>2667.661644592702</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.84132391742</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="Q11" t="n">
-        <v>3728.340109876015</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3813.842300812908</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3593.775073685947</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U11" t="n">
-        <v>3334.552771002964</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V11" t="n">
-        <v>2971.93582093679</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W11" t="n">
-        <v>2567.080366347824</v>
+        <v>2418.363649714071</v>
       </c>
       <c r="X11" t="n">
-        <v>2147.937902927134</v>
+        <v>1999.221186293381</v>
       </c>
       <c r="Y11" t="n">
-        <v>1739.651779226788</v>
+        <v>1590.935062593035</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>119.685535676369</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1624.016866877051</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>928.4459205695127</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C13" t="n">
-        <v>755.8842090527377</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D13" t="n">
-        <v>590.0062162542604</v>
+        <v>674.0187936705865</v>
       </c>
       <c r="E13" t="n">
-        <v>420.2482125049976</v>
+        <v>504.2607899213239</v>
       </c>
       <c r="F13" t="n">
-        <v>243.5411584667538</v>
+        <v>327.5537358830801</v>
       </c>
       <c r="G13" t="n">
-        <v>77.94988349258144</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.94988349258144</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>439.2880232284069</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2676.370324352697</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T13" t="n">
-        <v>2430.490877931152</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U13" t="n">
-        <v>2152.057877184257</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V13" t="n">
-        <v>1865.102369054688</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W13" t="n">
-        <v>1593.075964640979</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.684209974392</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.2645392885</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2066.446618057014</v>
+        <v>2065.750184850027</v>
       </c>
       <c r="C14" t="n">
-        <v>2066.446618057014</v>
+        <v>1627.607712033451</v>
       </c>
       <c r="D14" t="n">
-        <v>1630.536833231458</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="E14" t="n">
-        <v>1196.762088389753</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F14" t="n">
-        <v>768.8946587989612</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G14" t="n">
-        <v>367.4968274222252</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H14" t="n">
-        <v>78.36667286544143</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>912.3001754507594</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1558.055705616386</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1558.055705616386</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>1558.055705616386</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>2522.685513837081</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>3350.995388670477</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3813.842300812908</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3593.775073685947</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3334.552771002964</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>2971.93582093679</v>
+        <v>3316.047673344591</v>
       </c>
       <c r="W14" t="n">
-        <v>2567.080366347824</v>
+        <v>2911.192218755624</v>
       </c>
       <c r="X14" t="n">
-        <v>2147.937902927134</v>
+        <v>2492.049755334935</v>
       </c>
       <c r="Y14" t="n">
-        <v>2066.446618057014</v>
+        <v>2492.049755334935</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>119.685535676369</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>428.5718816192513</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1624.016866877051</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>928.4459205695127</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C16" t="n">
-        <v>755.8842090527377</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D16" t="n">
-        <v>590.0062162542604</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E16" t="n">
-        <v>420.2482125049976</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F16" t="n">
-        <v>243.5411584667538</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G16" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>439.2880232284069</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2676.370324352697</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T16" t="n">
-        <v>2430.490877931152</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U16" t="n">
-        <v>2152.057877184257</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V16" t="n">
-        <v>1865.102369054688</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W16" t="n">
-        <v>1593.075964640979</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.684209974392</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.2645392885</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="17">
@@ -5542,10 +5542,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,13 +5998,13 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
         <v>1654.847790009657</v>
@@ -6217,37 +6217,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6259,16 +6259,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
         <v>2955.199618136697</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>537.5155277236975</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.563362934248</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N29" t="n">
-        <v>2820.294346370695</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3365.117609755799</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>3192.555898239023</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>3026.677905440546</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>2856.919901691283</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.21284765304</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>3784.355899160677</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>3556.936228474786</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,16 +6709,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6928,10 +6928,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6970,16 +6970,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1617.071309685005</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1375.501842750634</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>939.5920579250785</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>505.8173130833737</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>77.94988349258144</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>513.2045709454993</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1347.554862903677</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M41" t="n">
-        <v>1347.554862903677</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N41" t="n">
-        <v>1388.901640863328</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O41" t="n">
-        <v>2353.531449084023</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>3181.84132391742</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3728.340109876015</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3638.271871946088</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3275.654921879915</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>2870.799467290948</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>2451.657003870259</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2043.370880169912</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>119.685535676369</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>77.94988349258144</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>402.5082084587938</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1083.241728529171</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>1083.241728529171</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>1083.241728529171</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1083.241728529171</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1083.241728529171</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1624.016866877051</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>928.4459205695127</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>755.8842090527377</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>590.0062162542604</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>420.2482125049976</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>243.5411584667538</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>439.2880232284069</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2676.370324352697</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1865.102369054688</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1347.684209974392</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1313.35220874188</v>
+        <v>1786.474744857284</v>
       </c>
       <c r="C44" t="n">
-        <v>875.2097359253034</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D44" t="n">
-        <v>768.4778694261013</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E44" t="n">
-        <v>768.4778694261013</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F44" t="n">
-        <v>768.4778694261013</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G44" t="n">
-        <v>367.0800380493652</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H44" t="n">
-        <v>77.94988349258144</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
-        <v>77.94988349258144</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>513.2045709454993</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>1347.554862903677</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1388.901640863328</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M44" t="n">
-        <v>1388.901640863328</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N44" t="n">
-        <v>1388.901640863328</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O44" t="n">
-        <v>2353.531449084023</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>3181.84132391742</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3728.340109876015</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3897.494174629071</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3813.842300812908</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3593.775073685947</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U44" t="n">
-        <v>3334.552771002964</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V44" t="n">
-        <v>2971.93582093679</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W44" t="n">
-        <v>2567.080366347824</v>
+        <v>3040.202902463227</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.937902927134</v>
+        <v>2621.060439042538</v>
       </c>
       <c r="Y44" t="n">
-        <v>1739.651779226788</v>
+        <v>2212.774315342192</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2740.426158141556</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>2633.969696978198</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>2538.879408124751</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>2444.758993451705</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>2361.375155067867</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>2275.990065334051</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>2234.254413150263</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>2260.318086310721</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>2584.876411276933</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>3239.582457902656</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>3780.321396534732</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>3897.494174629071</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>3834.038737077455</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>3703.860093408056</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>3527.523546408025</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>3328.406028470024</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>3143.083274203218</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>2988.215838442098</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>2861.730059221319</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2131.330601803204</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>1958.768890286428</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>1792.890897487951</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>1623.132893738688</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>1446.425839700444</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>1280.834564726272</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>1280.834564726272</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>1280.834564726272</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>1367.414249890962</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>1642.172704462097</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>2060.382586230058</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>2519.866453410971</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>2962.125256568616</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>3381.794505794397</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>3729.301399764739</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>3897.494174629071</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>3897.494174629071</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>3879.255005586387</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>3633.375559164842</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>3354.942558417948</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>3067.987050288378</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>2795.96064587467</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>2550.568891208082</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>2323.149220522191</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,16 +8221,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572679</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>421.8541125390734</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.854112539073</v>
       </c>
       <c r="N11" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>652.2783132986124</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572679</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9646,16 +9646,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
-        <v>103.979036059106</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10126,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>756.3484258820577</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>363.3683445154866</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0365653694991579</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76442218146576</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572679</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.9043815477384</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>161.6128417410608</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>110.0349065174851</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>308.5358299231352</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>195.0198973025159</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.71657238081404</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.05990761100543</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>153.6509100586452</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.77714763465781</v>
       </c>
       <c r="D11" t="n">
-        <v>358.3519049525402</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>69.71657238081394</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>13.40364883929328</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>323.5268904419237</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>33.27974144948206</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>194.6072758233842</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25684,10 +25684,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>22.70959839105069</v>
       </c>
       <c r="D44" t="n">
-        <v>325.8861391430897</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>439991.9295861506</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>563317.924536641</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>563317.924536641</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563317.924536641</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563317.924536641</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>685449.7265311104</v>
+        <v>685449.7265311105</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685449.7265311105</v>
+        <v>685449.7265311104</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563317.9245366411</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563317.9245366411</v>
+        <v>539970.7605911944</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169095.6142289526</v>
+        <v>207519.004982033</v>
       </c>
       <c r="C2" t="n">
-        <v>216491.6764389224</v>
+        <v>207519.004982033</v>
       </c>
       <c r="D2" t="n">
-        <v>216491.6764389224</v>
+        <v>207519.004982033</v>
       </c>
       <c r="E2" t="n">
-        <v>216491.6764389224</v>
+        <v>207519.004982033</v>
       </c>
       <c r="F2" t="n">
-        <v>216491.6764389225</v>
+        <v>207519.004982033</v>
       </c>
       <c r="G2" t="n">
         <v>263428.7920686761</v>
@@ -26334,7 +26334,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="I2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="J2" t="n">
         <v>263428.7920686761</v>
@@ -26352,10 +26352,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>216491.6764389225</v>
+        <v>207519.0049820331</v>
       </c>
       <c r="P2" t="n">
-        <v>216491.6764389224</v>
+        <v>207519.004982033</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
-        <v>99136.93345537239</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83290.85735690568</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
-        <v>78975.51648973278</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17770.48083418234</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="C4" t="n">
-        <v>22751.39544251506</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="D4" t="n">
-        <v>22751.39544251507</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="E4" t="n">
-        <v>22751.39544251507</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="F4" t="n">
-        <v>22751.39544251507</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26456,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>22751.39544251507</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="P4" t="n">
-        <v>22751.39544251506</v>
+        <v>21808.44558019529</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>92869.51145436188</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>92869.51145436188</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>59241.91145436189</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>59241.91145436189</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>59241.91145436189</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>59241.91145436189</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146587.0897510322</v>
+        <v>-210996.693039219</v>
       </c>
       <c r="C6" t="n">
-        <v>1733.83608667308</v>
+        <v>96070.27724749869</v>
       </c>
       <c r="D6" t="n">
-        <v>100870.7695420455</v>
+        <v>96070.27724749866</v>
       </c>
       <c r="E6" t="n">
-        <v>134498.3695420455</v>
+        <v>129697.8772474987</v>
       </c>
       <c r="F6" t="n">
-        <v>134498.3695420455</v>
+        <v>129697.8772474987</v>
       </c>
       <c r="G6" t="n">
-        <v>74735.6173557752</v>
+        <v>58790.20673802631</v>
       </c>
       <c r="H6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="I6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732982</v>
       </c>
       <c r="J6" t="n">
-        <v>-16624.87400502524</v>
+        <v>-81736.27921344446</v>
       </c>
       <c r="K6" t="n">
-        <v>79050.95822294813</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="L6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="M6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="N6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="O6" t="n">
-        <v>134498.3695420455</v>
+        <v>129697.8772474988</v>
       </c>
       <c r="P6" t="n">
-        <v>134498.3695420455</v>
+        <v>129697.8772474987</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>306.8583370494109</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>303.8869597274775</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494109</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494109</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>303.8869597274775</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572679</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>421.8541125390734</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35339,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35412,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.854112539073</v>
       </c>
       <c r="N11" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>652.2783132986124</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572679</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36366,16 +36366,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
-        <v>103.979036059106</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36846,16 +36846,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>756.3484258820577</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>363.3683445154866</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37782,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>41.76442218146576</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572679</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0365653694991579</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38019,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76442218146576</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572679</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
